--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A8CCC5-82AE-48C6-BE70-13DF56ABB82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2AC39-236A-450E-BF5D-732B92DD519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>See above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More work on webscraping. I know have a .txt file with 360 links to results pages. </t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,7 +436,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>9.8611111111111205E-2</v>
+        <v>0.15625000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -482,7 +485,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D6" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D7" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -505,6 +508,24 @@
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.31527777777777777</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.37291666666666667</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2AC39-236A-450E-BF5D-732B92DD519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E0EE4-B1E5-447B-94A4-668DB9EEFD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2930" yWindow="2320" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">More work on webscraping. I know have a .txt file with 360 links to results pages. </t>
+  </si>
+  <si>
+    <t>Continued work on getting the results from the tables. I have a function that returns a list of lists containing the table data for a URL.</t>
+  </si>
+  <si>
+    <t>At last, I've got two CSV files. I'll make two tables out of them: races and results.</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,7 +442,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.15625000000000011</v>
+        <v>0.29375000000000012</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -485,7 +491,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D7" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D9" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -526,6 +532,42 @@
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.33888888888888891</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5E0EE4-B1E5-447B-94A4-668DB9EEFD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87836F4-9C87-4C41-9F5A-9F16CCA8D092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2930" yWindow="2320" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>At last, I've got two CSV files. I'll make two tables out of them: races and results.</t>
+  </si>
+  <si>
+    <t>Cleaned the data and set up a next-js with supabase website using Vercel</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,7 +445,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.29375000000000012</v>
+        <v>0.32152777777777797</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -491,7 +494,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D9" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D10" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -568,6 +571,24 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45976</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.49166666666666664</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777846E-2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87836F4-9C87-4C41-9F5A-9F16CCA8D092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFD729-F10E-458F-9C5D-0678715A01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2930" yWindow="2320" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Cleaned the data and set up a next-js with supabase website using Vercel</t>
+  </si>
+  <si>
+    <t>Uploaded the data to supabase. Immediately, I noticed some problems with the race results. There are cycling 5Ks whose times are much faster than running and some of the time values are a place value instead.</t>
+  </si>
+  <si>
+    <t>Created a pipeline for getting the race results correctly. I'm going to rerun this to get results from earlier years.</t>
+  </si>
+  <si>
+    <t>Accounting for edge cases and fixing bugs in the pipeline that resulted in bad data</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,7 +454,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.32152777777777797</v>
+        <v>0.46041666666666681</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -494,7 +503,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D10" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D13" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -589,6 +598,60 @@
       </c>
       <c r="E10" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.51527777777777772</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>5.8333333333333293E-2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BFD729-F10E-458F-9C5D-0678715A01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A142444-5398-4CAC-BF15-D3EB767C979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2930" yWindow="2320" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Accounting for edge cases and fixing bugs in the pipeline that resulted in bad data</t>
+  </si>
+  <si>
+    <t>A little more data cleaning.</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +457,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.46041666666666681</v>
+        <v>0.48680555555555571</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -503,7 +506,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D13" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D14" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -652,6 +655,24 @@
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.71388888888888891</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.74027777777777781</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888906E-2</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A142444-5398-4CAC-BF15-D3EB767C979E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330FE3E-69FB-4B1B-A3AC-62E9F4A8F62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2930" yWindow="2320" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>A little more data cleaning.</t>
+  </si>
+  <si>
+    <t>Got the website running local and created an account</t>
+  </si>
+  <si>
+    <t>I have two pages. One returns the races table and the other the results table.</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +463,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.48680555555555571</v>
+        <v>0.53680555555555565</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -506,7 +512,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D14" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D16" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -673,6 +679,42 @@
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.74861111111111112</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.76527777777777772</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.84236111111111112</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.87569444444444444</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330FE3E-69FB-4B1B-A3AC-62E9F4A8F62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A9115A-5B39-40AF-90A0-5A2BF726F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>I have two pages. One returns the races table and the other the results table.</t>
+  </si>
+  <si>
+    <t>I made a road races page with an outline for submitting questions that will be answered using ChatGPT and Supabase.</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,7 +466,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.53680555555555565</v>
+        <v>0.59444444444444455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -512,7 +515,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D16" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D17" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -715,6 +718,24 @@
       </c>
       <c r="E16" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.63472222222222219</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A9115A-5B39-40AF-90A0-5A2BF726F19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA245B57-61E5-4E04-88A4-8194EEB6C036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>I made a road races page with an outline for submitting questions that will be answered using ChatGPT and Supabase.</t>
+  </si>
+  <si>
+    <t>I'm trying to integrate with the Supabase Data API. I'm having trouble doing this.</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,7 +469,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.59444444444444455</v>
+        <v>0.64097222222222228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -515,7 +518,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D17" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D18" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -736,6 +739,24 @@
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.70416666666666672</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6527777777777724E-2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA245B57-61E5-4E04-88A4-8194EEB6C036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067A5EA1-D3D5-4CCC-90DD-A36C3A7BDC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="2660" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>I'm trying to integrate with the Supabase Data API. I'm having trouble doing this.</t>
+  </si>
+  <si>
+    <t>Integrated with the database. Now the race results are displayed on the page.</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,7 +472,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.64097222222222228</v>
+        <v>0.68958333333333344</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -518,7 +521,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D18" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D19" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -757,6 +760,24 @@
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067A5EA1-D3D5-4CCC-90DD-A36C3A7BDC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061E5D0-E7C3-4461-83C7-E98F6792A783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2660" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3610" yWindow="3000" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Integrated with the database. Now the race results are displayed on the page.</t>
+  </si>
+  <si>
+    <t>I integrated with ChatGPT. The user's question is sent to ChatGPT and translated in to a supabase query the client can execute. The results of this query are then sent to ChatGPT to be formatted in a readable, user-friendly way.</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +475,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.68958333333333344</v>
+        <v>0.77222222222222237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -521,7 +524,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D19" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D20" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -778,6 +781,24 @@
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.67569444444444449</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2638888888888928E-2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E061E5D0-E7C3-4461-83C7-E98F6792A783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48A5F9-C0C0-48F8-9D3F-00F2B87FF5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3610" yWindow="3000" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>I integrated with ChatGPT. The user's question is sent to ChatGPT and translated in to a supabase query the client can execute. The results of this query are then sent to ChatGPT to be formatted in a readable, user-friendly way.</t>
+  </si>
+  <si>
+    <t>Worked on writing queries to give to ChatGPT as an example</t>
+  </si>
+  <si>
+    <t>Added a new page to the website for recent queries. Also updated the prompt for ChatGPT, adding more examples.</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +481,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.77222222222222237</v>
+        <v>0.8402777777777779</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -524,7 +530,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D20" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D22" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -799,6 +805,42 @@
       </c>
       <c r="E20" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4583333333333282E-2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.60624999999999996</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3472222222222254E-2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Database Time Log.xlsx
+++ b/Database Time Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibneu\Documents\cs\cs 452 database design\Database Final Project\road-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48A5F9-C0C0-48F8-9D3F-00F2B87FF5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DBF62-1444-46DE-8BCD-7D048E720512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Added a new page to the website for recent queries. Also updated the prompt for ChatGPT, adding more examples.</t>
+  </si>
+  <si>
+    <t>Added a races and results tab to the website that displays the tables.</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,7 +484,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUM(D4:D102)</f>
-        <v>0.8402777777777779</v>
+        <v>0.85902777777777795</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -530,7 +533,7 @@
         <v>0.70902777777777781</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D22" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D23" si="0">C5-B5</f>
         <v>2.6388888888888906E-2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -841,6 +844,24 @@
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.43888888888888888</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8749999999999989E-2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
